--- a/21052021/coach iv all.xlsx
+++ b/21052021/coach iv all.xlsx
@@ -1,18 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\b00001174\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13590"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet0" r:id="rId3" sheetId="1"/>
+    <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="271">
   <si>
     <t>hit, hit, hit</t>
   </si>
@@ -800,37 +807,69 @@
     <t>laɪ</t>
   </si>
   <si>
-    <t>лежать, лгать</t>
+    <t>build, built, built</t>
+  </si>
+  <si>
+    <t>строить</t>
+  </si>
+  <si>
+    <t>lie, lied, lied</t>
+  </si>
+  <si>
+    <t>лежать</t>
+  </si>
+  <si>
+    <t>лгать</t>
+  </si>
+  <si>
+    <t>wet,wet,wet</t>
+  </si>
+  <si>
+    <t>увлажнять</t>
+  </si>
+  <si>
+    <t>cost,cost,cost</t>
+  </si>
+  <si>
+    <t>стоить</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="Arial"/>
-      <sz val="11.0"/>
-      <b val="true"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="darkGray"/>
+      <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -838,994 +877,1328 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
   </cellXfs>
+  <cellStyles count="2">
+    <cellStyle name="Вывод" xfId="1" builtinId="21"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+  <a:themeElements>
+    <a:clrScheme name="Стандартная">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Стандартная">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Стандартная">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D88"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C92"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="35.28515625" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" customWidth="1"/>
+    <col min="3" max="3" width="38" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C5" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C6" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C7" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B12" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C12" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B13" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C13" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B12" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B15" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C15" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B16" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C16" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B17" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C17" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B18" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C18" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B19" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C19" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B20" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C20" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="s">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B21" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C21" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="s">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B22" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C22" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="s">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B23" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C23" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="s">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B25" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C25" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="s">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B26" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C26" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="s">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B27" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C27" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="s">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B28" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C28" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="s">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B29" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C29" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="s">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B30" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C30" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="s">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B31" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C31" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="s">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B32" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C32" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="s">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B33" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C33" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="s">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B34" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C34" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="s">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B35" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C35" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="s">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B36" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C36" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="s">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B37" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C37" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="s">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B38" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C38" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="s">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B39" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C39" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="s">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B41" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C41" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="s">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B42" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C42" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="s">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B43" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C43" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="s">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B44" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C44" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="s">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B45" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C45" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" t="s">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B46" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C46" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" t="s">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B47" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C47" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" t="s">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B48" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C48" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" t="s">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B49" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C49" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" t="s">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B50" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C50" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" t="s">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B51" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C51" s="1" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" t="s">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B52" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C52" s="1" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" t="s">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B53" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C53" s="1" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" t="s">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B54" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C54" s="1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" t="s">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B55" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C55" s="1" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" t="s">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B56" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C56" s="1" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" t="s">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B57" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C57" s="1" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" t="s">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B58" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C58" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" t="s">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B59" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C59" s="1" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" t="s">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B60" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C60" s="1" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" t="s">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B61" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C61" s="1" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" t="s">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B62" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C62" s="1" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" t="s">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B63" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C63" s="1" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" t="s">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B64" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C64" s="1" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" t="s">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B65" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C65" s="1" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" t="s">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B66" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C66" s="1" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" t="s">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B67" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C67" s="1" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" t="s">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B68" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C68" s="1" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" t="s">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B69" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C69" s="1" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" t="s">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B70" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C70" s="1" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" t="s">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B71" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C71" s="1" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" t="s">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B72" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C72" s="1" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" t="s">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B73" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C73" s="1" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" t="s">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B74" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C74" s="1" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" t="s">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B75" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C75" s="1" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" t="s">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B76" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C76" s="1" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" t="s">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B77" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C77" s="1" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" t="s">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B78" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="C74" t="s">
+      <c r="C78" s="1" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" t="s">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B79" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="C75" t="s">
+      <c r="C79" s="1" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" t="s">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B80" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C80" s="1" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" t="s">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B81" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="C77" t="s">
+      <c r="C81" s="1" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" t="s">
-        <v>231</v>
-      </c>
-      <c r="B78" t="s">
-        <v>232</v>
-      </c>
-      <c r="C78" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="s">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B82" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="C79" t="s">
+      <c r="C82" s="1" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="80">
-      <c r="A80" t="s">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B83" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C83" s="1" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" t="s">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B85" s="1"/>
+      <c r="C85" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B86" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C86" s="1" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="82">
-      <c r="A82" t="s">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B87" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="C82" t="s">
+      <c r="C87" s="1" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="83">
-      <c r="A83" t="s">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B88" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="C83" t="s">
+      <c r="C88" s="1" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="84">
-      <c r="A84" t="s">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B89" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="C84" t="s">
+      <c r="C89" s="1" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="85">
-      <c r="A85" t="s">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B90" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="C85" t="s">
+      <c r="C90" s="1" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="86">
-      <c r="A86" t="s">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B91" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="C86" t="s">
+      <c r="C91" s="1" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="87">
-      <c r="A87" t="s">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B92" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="C87" t="s">
+      <c r="C92" s="1" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="88">
-      <c r="A88" t="s">
-        <v>260</v>
-      </c>
-      <c r="B88" t="s">
-        <v>261</v>
-      </c>
-      <c r="C88" t="s">
-        <v>262</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>